--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3477.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3477.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.09399458860837</v>
+        <v>0.7641556262969971</v>
       </c>
       <c r="B1">
-        <v>1.864773041366238</v>
+        <v>1.20589292049408</v>
       </c>
       <c r="C1">
-        <v>6.088062084781058</v>
+        <v>4.344531536102295</v>
       </c>
       <c r="D1">
-        <v>4.646014114215673</v>
+        <v>3.97257924079895</v>
       </c>
       <c r="E1">
-        <v>1.587139693526863</v>
+        <v>1.583240628242493</v>
       </c>
     </row>
   </sheetData>
